--- a/biology/Zoologie/Abronica/Abronica.xlsx
+++ b/biology/Zoologie/Abronica/Abronica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abronica est un genre de mollusques gastéropodes marins, le seul de la famille des Abronicidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Abronicidae a été créée en 2017 par Tatiana Korshunova (d), Alexander Vladimirovitch Martynov (d), Torkild Bakken (d), Jussi Evertsen (d), Karin Fletcher (d), I. Wayan Mudianta (d), Hiroshi Saito (d), Kennet Lundin (d), Michael Schrödl (d) et Bernard E. Picton (d)[1],[2].
-Le genre Abronica a été créé en 2016 par Kristen Cella (d), Leila Carmona Barnosi (d), Irina Ekimova (d), Anton Chichvarkhin (d), Dimitry Schepetov (d) et Terrence M. Gosliner (d)[1],[3]. Son espèce type est Abronica abronia[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Abronicidae a été créée en 2017 par Tatiana Korshunova (d), Alexander Vladimirovitch Martynov (d), Torkild Bakken (d), Jussi Evertsen (d), Karin Fletcher (d), I. Wayan Mudianta (d), Hiroshi Saito (d), Kennet Lundin (d), Michael Schrödl (d) et Bernard E. Picton (d),.
+Le genre Abronica a été créé en 2016 par Kristen Cella (d), Leila Carmona Barnosi (d), Irina Ekimova (d), Anton Chichvarkhin (d), Dimitry Schepetov (d) et Terrence M. Gosliner (d),. Son espèce type est Abronica abronia.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (28 mai 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (28 mai 2022) :
 Abronica abronia (MacFarland, 1966)
 Abronica purpureoanulata (Baba, 1961)</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Famille des Abronicidae :
 (en) Tatiana Korshunova, Alexander Vladimirovitch Martynov, Torkild Bakken, Jussi Evertsen, Karin Fletcher, I. Wayan Mudianta, Hiroshi Saito, Kennet Lundin, Michael Schrödl et Bernard E. Picton, « Polyphyly of the traditional family Flabellinidae affects a major group of Nudibranchia: aeolidacean taxonomic reassessment with descriptions of several new families, genera, and species (Mollusca, Gastropoda) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 717, no 717,‎ 30 novembre 2017, p. 1-139 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, PMID 29391848, PMCID 5784208, DOI 10.3897/ZOOKEYS.717.21885, lire en ligne)
